--- a/test-results/UnitRoots/GDPPerCap_results.xlsx
+++ b/test-results/UnitRoots/GDPPerCap_results.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caw6/Desktop/UrbanizationCauseConsequence/test-results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21400" windowHeight="17620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GDPPerCapRealLCU" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" fullCalcOnLoad="true" concurrentCalc="false"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="162">
   <si>
     <t>Country</t>
   </si>
@@ -518,8 +506,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -553,7 +541,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,11 +609,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -891,19 +874,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +936,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +986,7 @@
         <v>-0.97700205716030319</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1036,7 @@
         <v>-2.3409376216933491</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1086,7 @@
         <v>-1.883329354673043</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1136,7 @@
         <v>-2.1743486001599259</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1186,7 @@
         <v>-1.9293157615400129</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1236,7 @@
         <v>-2.0750649469624709</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1286,7 @@
         <v>-0.62225187794967118</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1336,7 @@
         <v>-9.4419798671111194E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1386,7 @@
         <v>-1.6668004453907881</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1436,7 @@
         <v>1.310795693518825</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1486,7 @@
         <v>-1.0741100127246499</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1553,7 +1536,7 @@
         <v>-0.94931487408462079</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1586,7 @@
         <v>-1.160875562694446</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1653,7 +1636,7 @@
         <v>-1.7596544590155849</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1703,7 +1686,7 @@
         <v>-1.154703016885215</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1753,7 +1736,7 @@
         <v>-0.1409405755491705</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" s="1" customFormat="true">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1803,7 +1786,7 @@
         <v>-0.74006246236135698</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1853,7 +1836,7 @@
         <v>-2.0435760786100068</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1903,7 +1886,7 @@
         <v>-2.8012595526142041</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +1936,7 @@
         <v>-2.220587988466173</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2003,7 +1986,7 @@
         <v>-2.0647748089236519</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" s="1" customFormat="true">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2053,7 +2036,7 @@
         <v>-4.7623445308931789</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2103,7 +2086,7 @@
         <v>-2.0952753068663048</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2153,7 +2136,7 @@
         <v>-1.313637379044712</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2203,7 +2186,7 @@
         <v>-1.0247677450949499</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2253,7 +2236,7 @@
         <v>-1.381688971960753</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2303,7 +2286,7 @@
         <v>-2.3287854717395251</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2353,7 +2336,7 @@
         <v>-2.831887085516557</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2403,7 +2386,7 @@
         <v>-1.8792544138784579</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2453,7 +2436,7 @@
         <v>-0.96064129805253828</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2503,7 +2486,7 @@
         <v>-2.3895036544624082</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2553,7 +2536,7 @@
         <v>-3.021920896859446</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2603,7 +2586,7 @@
         <v>-1.6424075286338371</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2653,7 +2636,7 @@
         <v>-0.37723312915473273</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2703,7 +2686,7 @@
         <v>-1.523782416766424</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2753,7 +2736,7 @@
         <v>-2.3596350468165221</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2803,7 +2786,7 @@
         <v>-1.9977096291448251</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2853,7 +2836,7 @@
         <v>-0.69118869901144009</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2903,7 +2886,7 @@
         <v>-5.019912265109598</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2953,7 +2936,7 @@
         <v>-0.74460268670823682</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3003,7 +2986,7 @@
         <v>-1.4067432184426361</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3053,7 +3036,7 @@
         <v>-2.238436855036317</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3103,7 +3086,7 @@
         <v>-1.8502002325413489</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3153,7 +3136,7 @@
         <v>-1.2960470822842229</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" s="1" customFormat="true">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -3203,7 +3186,7 @@
         <v>-4.2382877341016743</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3253,7 +3236,7 @@
         <v>-1.2600050185008671</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3303,7 +3286,7 @@
         <v>0.99234531662622738</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3353,7 +3336,7 @@
         <v>-0.54886752197920163</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3403,7 +3386,7 @@
         <v>-0.85792235392632521</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3453,7 +3436,7 @@
         <v>-1.2000297973041261</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3503,7 +3486,7 @@
         <v>-2.2629319352586381</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3553,7 +3536,7 @@
         <v>-4.1423351016873564</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3603,7 +3586,7 @@
         <v>2.437166040582798</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3653,7 +3636,7 @@
         <v>-1.651991928017958</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3703,7 +3686,7 @@
         <v>-3.0685857993526242</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3753,7 +3736,7 @@
         <v>-0.49269037241968211</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3803,7 +3786,7 @@
         <v>-1.2977649657995689</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3853,7 +3836,7 @@
         <v>-1.8626713846112981</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3903,7 +3886,7 @@
         <v>-0.33793635065304839</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3953,7 +3936,7 @@
         <v>-1.8018436154354389</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4003,7 +3986,7 @@
         <v>-3.0291154742836861</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4053,7 +4036,7 @@
         <v>-1.9638193198445351</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4103,7 +4086,7 @@
         <v>0.38532618962657478</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4153,7 +4136,7 @@
         <v>-0.95446351103075433</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4203,7 +4186,7 @@
         <v>-2.7088756638850962</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4253,7 +4236,7 @@
         <v>-2.6662007093406541</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4303,7 +4286,7 @@
         <v>-2.929449161042625</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4353,7 +4336,7 @@
         <v>-2.3734300549893521</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4403,7 +4386,7 @@
         <v>-0.47876154106854441</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4453,7 +4436,7 @@
         <v>-2.9612693224305531</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4503,7 +4486,7 @@
         <v>-2.305105543973621</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4553,7 +4536,7 @@
         <v>-2.1262640334151488</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4603,7 +4586,7 @@
         <v>0.31354564165679588</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4653,7 +4636,7 @@
         <v>-1.6816879732591159</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4703,7 +4686,7 @@
         <v>-4.7329423776812289</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4753,7 +4736,7 @@
         <v>0.46765715949352099</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4803,7 +4786,7 @@
         <v>-1.30339154848365</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4853,7 +4836,7 @@
         <v>-2.155478665867002</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4903,7 +4886,7 @@
         <v>-3.785584777498161</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4953,7 +4936,7 @@
         <v>-1.230223480319758</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5003,7 +4986,7 @@
         <v>-1.7938586990455561</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5053,7 +5036,7 @@
         <v>-2.1543431832818118</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" s="1" customFormat="true">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -5103,7 +5086,7 @@
         <v>-2.917255127045836</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5153,7 +5136,7 @@
         <v>-1.9714430642719281</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5203,7 +5186,7 @@
         <v>-1.8851952096132649</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5253,7 +5236,7 @@
         <v>-1.451998485591401</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5303,7 +5286,7 @@
         <v>-1.2077717831911881</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5353,7 +5336,7 @@
         <v>-2.8459360973534582</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5403,7 +5386,7 @@
         <v>-3.667306734941314</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5453,7 +5436,7 @@
         <v>0.1019980204064347</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5503,7 +5486,7 @@
         <v>-2.5484988400292088</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5553,7 +5536,7 @@
         <v>-2.6889323104742799</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5603,7 +5586,7 @@
         <v>-2.5031641680027219</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5653,7 +5636,7 @@
         <v>-1.8118570002473631</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5703,7 +5686,7 @@
         <v>-0.17955715282910231</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5753,7 +5736,7 @@
         <v>-0.79390230260806149</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5803,7 +5786,7 @@
         <v>-1.443323345334653</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5853,7 +5836,7 @@
         <v>-1.33534939611478</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5903,7 +5886,7 @@
         <v>0.19287745554761709</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5953,7 +5936,7 @@
         <v>-2.3017140771327651</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6003,7 +5986,7 @@
         <v>-0.7610862862527088</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6053,7 +6036,7 @@
         <v>-0.94993247739039455</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6103,7 +6086,7 @@
         <v>-2.6921869817541588</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6153,7 +6136,7 @@
         <v>-1.46200124106851E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6203,7 +6186,7 @@
         <v>-3.313823488876892</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6253,7 +6236,7 @@
         <v>-0.65743225666911576</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6303,7 +6286,7 @@
         <v>-1.618752470866484</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6353,7 +6336,7 @@
         <v>0.69971501931169489</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6403,7 +6386,7 @@
         <v>-1.5998248489603399</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6453,7 +6436,7 @@
         <v>-1.5950774154258101</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6503,7 +6486,7 @@
         <v>-2.0318161217748529</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6553,7 +6536,7 @@
         <v>-1.612227036528052</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6603,7 +6586,7 @@
         <v>-2.343677565108</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6653,7 +6636,7 @@
         <v>-1.9177317751523471</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6703,7 +6686,7 @@
         <v>-2.1040863274581971</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6753,7 +6736,7 @@
         <v>-1.8110113110720121</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6803,7 +6786,7 @@
         <v>-1.951484017767388</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6853,7 +6836,7 @@
         <v>-2.4187075880827922</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6903,7 +6886,7 @@
         <v>-1.4035825420027379</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6953,7 +6936,7 @@
         <v>-2.2060986539900518</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7003,7 +6986,7 @@
         <v>-1.840067909379137</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7053,7 +7036,7 @@
         <v>-2.1937248396856011</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7103,7 +7086,7 @@
         <v>-1.56139080675464E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7153,7 +7136,7 @@
         <v>-1.640597096688583</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7203,7 +7186,7 @@
         <v>-2.3081351433787569</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7253,7 +7236,7 @@
         <v>-1.530182644310325</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7303,7 +7286,7 @@
         <v>-2.1976484133071552</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7353,7 +7336,7 @@
         <v>-5.0988275200053534</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7403,7 +7386,7 @@
         <v>-1.5204467443978551</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7453,7 +7436,7 @@
         <v>-1.897510584946025</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7503,7 +7486,7 @@
         <v>-0.69123761040506682</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7553,7 +7536,7 @@
         <v>-2.2885145920795869</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7603,7 +7586,7 @@
         <v>-1.5376615931570901</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7653,7 +7636,7 @@
         <v>-1.107671073002465</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7703,7 +7686,7 @@
         <v>-1.8141521183702241</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7753,7 +7736,7 @@
         <v>-1.5448660613992991</v>
       </c>
     </row>
-    <row r="138" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" s="1" customFormat="true">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -7803,7 +7786,7 @@
         <v>-2.3895738374824931</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7853,7 +7836,7 @@
         <v>-1.7262575593084999</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7903,7 +7886,7 @@
         <v>-1.450675011922816</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7953,7 +7936,7 @@
         <v>-1.778724307643174</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -8003,7 +7986,7 @@
         <v>-1.2961405738912799</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -8053,7 +8036,7 @@
         <v>-1.8742730717319791</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -8103,7 +8086,7 @@
         <v>0.6704051323486756</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -8153,7 +8136,7 @@
         <v>1.044951075127841</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -8203,7 +8186,7 @@
         <v>-1.345322806212953</v>
       </c>
     </row>
-    <row r="147" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" s="1" customFormat="true">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -8271,4 +8254,1192 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J147"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1.099814939104816</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2.8316377083012081</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>-1.037304743145905</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>-0.12934173954468961</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>1.3267093459506629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>-2.7653508529777189</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>1.359538863796935</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>-1.2034483629417589</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10">
+        <v>-1.1955333502158321</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11">
+        <v>9.8301375474009127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12">
+        <v>-0.1323890559168559</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>-0.1058248010093624</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-0.28031717005082518</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.0254025033748718</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3.3632364122440599</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1.9074914846233411</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-4.3183222865244302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.95597664878832811</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>-1.015380124367294</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.99404879897941067</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2.557039079554539</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>-1.11821748838301</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2.8316377083012081</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>-1.156850007046472</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>-1.037304743145905</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>-0.47777730370983768</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>-0.0621013239923352</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2.8338977387401418</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>22.717558165820179</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3.2886794597074869</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>-0.7514977779051768</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>-1.07756824822329</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2.115606035197759</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>-1.213057278752117</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>-2.3605452914117699</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.3139744298760318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.33941214834039202</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>-1.8371084126260031</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>-0.12934173954468961</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3.515986837451615</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.51071819761284765</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1.3267093459506629</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.44649891573440592</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>-0.2377180480636838</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>-2.531479891186768</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>-1.241803192991414</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4.1568873541717508</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>-0.99310601447841829</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>-2.7653508529777189</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>-2.318666730977331</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>-0.78766441112728947</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>-0.52483388183863167</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2.4320704719169548</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>-2.5817197267125662</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>-0.82542031057462162</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>-1.164954258476903</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>-2.901874886974245</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2.350652090903925</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>-1.4766179518190159</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.58590463685119065</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>-0.0497082885282778</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>-0.39231700133991487</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>13.07087409023007</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>3.544717768950763</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>-1.679015932198191</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>-1.58435719522136</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1.3756753269316271</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>-0.086228406305641395</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>-3.2191226531539789</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>-2.4631917720652519</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>-2.2820942512515772</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1.359538863796935</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>-0.56812947448517992</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4.3288563478715023</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>-0.73304971234024463</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>11.52173890430225</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>-0.73998815818407815</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1.793098256835872</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>-0.383388540144184</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>-1.431064973443714</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>-0.3481172251600706</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1.472689407008865</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>-1.0798638776313429</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>-0.97863661060545359</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2.6891664512562379</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>-0.38475977976465853</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>-2.261594513361687</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>-1.4921696669516979</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0.86260483184617998</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3.4035981512553781</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1.737761546994109</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3.0475388131358292</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>13.255636417953481</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2.4431773961722132</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5.0678662451753542</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>-0.9052948349298775</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0.27847581222644252</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>-1.035765998463954</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>-1.229534815584344</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>-0.044401988151385803</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>-1.2034483629417589</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>-3.1531446676005079</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0.75034130466491256</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>4.0268742936128969</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>-0.35137255788815919</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0.16581174203767349</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1.4051043177738369</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2.8769422736362049</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2.143363090501142</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>-1.835107313851071</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0.89785197389161198</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>-0.23840002987219841</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0.62606920496808727</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>-1.1955333502158321</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>-1.9259202548065331</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>-0.77397682177517468</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>-1.715829596543657</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0.1109131746936164</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>-1.934637236513457</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>-1.078070761733678</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>-2.163885734568364</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>-2.10911459125556</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>9.8301375474009127</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>0.53251828885592656</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>-0.1323890559168559</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>-0.1058248010093624</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>-0.57507050191703235</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>-1.777067371238555</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>4.4739755407697768</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2.5063724848184941</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>-3.009278200292862</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1.0392808959154201</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1.074893929950824</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2.225556610226374</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2.2688518326596951</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>-1.6333414940996629</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>-1.2217230772753329</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>-0.0114385516307021</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>-0.40676502512621338</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2.5433541699212872</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>4.2806366663706976</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>-1.917326010870134</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>11.061604672584179</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>-0.78341377726397743</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>-0.67193017050868764</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>-1.0909369212089259</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>